--- a/TCC_ParteComum/Regras de negócio - Revisão.xlsx
+++ b/TCC_ParteComum/Regras de negócio - Revisão.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>Se a solicitação de agendamento não puder ser atendida, o paciente é informado e o processo encerrado.</t>
   </si>
@@ -235,13 +235,275 @@
   </si>
   <si>
     <t>Temos um buraco na númeração das regras, devemos acertar ou assim está correto? Não me lembro</t>
+  </si>
+  <si>
+    <t>Observação</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Não esta duplicada. Refere-se ao cancelamento e a regra de cobrança.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Deve ser reescrita. Posso refazer.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Sim, vamos reescrever.
+Posso reescrever.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Verificar com quem gerou a regra.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Sim, regra deve ser reescrita.
+Posso reescrever.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Verificar com quem gerou a regra. Entendo que seja </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Não faz sentido mesmo, uma vez que estamos tratando o serviço como CRUD.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tati:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pelos desenhos que fizemos, entendo que o CNPJ é uma chave primaria, e na maioria das vezes (Falando em mundo real) as razões sociais - nome - podem ser iguais, mas com CNPJ diferentes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tati:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pelos desenhos que fizemos, entendo que o CPF é uma chave primaria, e na maioria das vezes (Falando em mundo real) os nomes - podem ser iguais, mas com CPFs diferentes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tati: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vou rever o EAP. Podem ser algumas regras que excluímos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+RN-0001 é sobre o agendamento
+RN-003 é sobre o reagendamento. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Que eu me lembre as cobranças são sempre eviadas para a empresa.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -297,12 +559,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -349,7 +622,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,9 +654,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,6 +689,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -590,22 +865,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="120.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -615,8 +891,11 @@
       <c r="C1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -624,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -632,7 +911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -642,8 +921,11 @@
       <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="30">
+      <c r="D4" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -651,7 +933,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -659,7 +941,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -669,8 +951,11 @@
       <c r="C7" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -678,7 +963,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -688,8 +973,11 @@
       <c r="C9" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -697,7 +985,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -705,7 +993,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -713,7 +1001,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -721,7 +1009,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -731,8 +1019,11 @@
       <c r="C14" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -740,7 +1031,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30">
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -750,8 +1041,11 @@
       <c r="C16" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -759,7 +1053,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -767,7 +1061,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -777,8 +1071,11 @@
       <c r="C19" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -786,7 +1083,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -796,8 +1093,11 @@
       <c r="C21" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="30">
+      <c r="D21" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -807,28 +1107,31 @@
       <c r="C22" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -836,7 +1139,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -844,7 +1147,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -852,7 +1155,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -860,7 +1163,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30">
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -870,8 +1173,11 @@
       <c r="C31" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="75">
+      <c r="D31" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -881,8 +1187,11 @@
       <c r="C32" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="75">
+      <c r="D32" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -892,10 +1201,16 @@
       <c r="C33" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D33" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>71</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -905,12 +1220,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -918,12 +1233,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/TCC_ParteComum/Regras de negócio - Revisão.xlsx
+++ b/TCC_ParteComum/Regras de negócio - Revisão.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,6 @@
     <t>O prontuário do paciente deve ser arquivado fisicamente por 5 anos;</t>
   </si>
   <si>
-    <t>A cobrança é enviada entre os dias 30 e 1 de cada mês</t>
-  </si>
-  <si>
     <t>Reescrever regra? Da a impressão que a cobrança deve ser enviando dentro de um mês</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>Duplicada com RN-0003</t>
   </si>
   <si>
-    <t>Se o paciente não compareceu no dia e horário agendado, o processo é encerrado</t>
-  </si>
-  <si>
     <t>Não vamos mencionar a cobrança?</t>
   </si>
   <si>
@@ -202,9 +196,6 @@
   </si>
   <si>
     <t>Mencionar que é particular?</t>
-  </si>
-  <si>
-    <t>Um acorodo verbal é feito e o pagamento pode ser realizado posteriormente por  transferência bancária.</t>
   </si>
   <si>
     <t>A assistente deverá enviar uma proposta de novas parcerias para as empresas, e aguardar um retorno da proposta enviada.</t>
@@ -261,192 +252,6 @@
       </rPr>
       <t xml:space="preserve">
 Não esta duplicada. Refere-se ao cancelamento e a regra de cobrança.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tati:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Deve ser reescrita. Posso refazer.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tati:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Sim, vamos reescrever.
-Posso reescrever.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tati:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Verificar com quem gerou a regra.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tati:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Sim, regra deve ser reescrita.
-Posso reescrever.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tati:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Verificar com quem gerou a regra. Entendo que seja </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Tati:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Não faz sentido mesmo, uma vez que estamos tratando o serviço como CRUD.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tati:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pelos desenhos que fizemos, entendo que o CNPJ é uma chave primaria, e na maioria das vezes (Falando em mundo real) as razões sociais - nome - podem ser iguais, mas com CNPJ diferentes.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tati:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pelos desenhos que fizemos, entendo que o CPF é uma chave primaria, e na maioria das vezes (Falando em mundo real) os nomes - podem ser iguais, mas com CPFs diferentes.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tati: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vou rever o EAP. Podem ser algumas regras que excluímos.</t>
     </r>
   </si>
   <si>
@@ -495,14 +300,209 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Que eu me lembre as cobranças são sempre eviadas para a empresa.</t>
+Deve ser reescrita. Posso refazer.
+Update - reescrita</t>
+    </r>
+  </si>
+  <si>
+    <t>Se o paciente não compareceu no dia e horário agendado, é gerada a cobrança prevista em contrato e o processo é encerrado.</t>
+  </si>
+  <si>
+    <t>A cobrança é enviada para as empresas parceiras entre o dia 30 do mês corrente e o dia 1º do mês seguinte.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Sim, vamos reescrever.
+Posso reescrever.
+Update - reescrita</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Alisson, por favor reveja esta regra e a reescreva, se necessário. Verifiquei o diagrama, mas não entendi o contexto para reescreê-la.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Alisson, por favor explicar e reescrever a regra, se necessário,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tati:
+Sim, regra deve ser reescrita.
+Posso reescrever.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Update - Reescrita.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Verificar com quem gerou a regra. Entendo que seja 
+Update - regra reescrita</t>
+    </r>
+  </si>
+  <si>
+    <t>Um acordo verbal é realizado e o pagamento pode ser efetuado posteriormente por transferência bancária, antes do próximo atendimento.</t>
+  </si>
+  <si>
+    <r>
+      <t>Tati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Não faz sentido mesmo, uma vez que estamos tratando o serviço como CRUD.
+Update - Alexandre, reveja a regra e a mesma não está associada a nenhum diagrama.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tati:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pelos desenhos que fizemos, entendo que o CNPJ é uma chave primaria, e na maioria das vezes (Falando em mundo real) as razões sociais - nome - podem ser iguais, mas com CNPJ diferentes.
+Update - Alexandre, reveja a regra e a mesma não está associada a nenhum diagrama.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tati:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pelos desenhos que fizemos, entendo que o CPF é uma chave primaria, e na maioria das vezes (Falando em mundo real) os nomes - podem ser iguais, mas com CPFs diferentes.
+Update - Alexandre, reveja a regra e a mesma não está associada a nenhum diagrama.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tati: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>São regras excluídas, lembro que o Takai disse que não precisaríamos renumerá-las. Mantemos assim ou alteramos?</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -547,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -562,6 +562,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,9 +581,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -620,7 +621,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -655,6 +656,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -690,9 +708,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -868,9 +903,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,7 +927,7 @@
         <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -922,7 +957,7 @@
         <v>40</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -949,10 +984,10 @@
         <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,18 +998,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -992,6 +1027,7 @@
       <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1000,6 +1036,7 @@
       <c r="B12" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1009,15 +1046,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>75</v>
@@ -1028,21 +1065,21 @@
         <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1050,7 +1087,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1058,21 +1095,21 @@
         <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1080,35 +1117,35 @@
         <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1136,7 +1173,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1144,7 +1181,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1152,7 +1189,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1160,57 +1197,57 @@
         <v>33</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/TCC_ParteComum/Regras de negócio - Revisão.xlsx
+++ b/TCC_ParteComum/Regras de negócio - Revisão.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
   <si>
     <t>Se a solicitação de agendamento não puder ser atendida, o paciente é informado e o processo encerrado.</t>
   </si>
@@ -498,12 +498,21 @@
       <t>São regras excluídas, lembro que o Takai disse que não precisaríamos renumerá-las. Mantemos assim ou alteramos?</t>
     </r>
   </si>
+  <si>
+    <t>Alexandre: Falamos da RN-0031? Se for ela, sugiro a exclusão, visto que essa regra se adequa mais a um requisito de sistema.</t>
+  </si>
+  <si>
+    <t>Alexandre: Concordo Tati: "e na maioria das vezes (Falando em mundo real) as razões sociais - nome - podem ser iguais, mas com CNPJ diferentes."</t>
+  </si>
+  <si>
+    <t>Alexandre: Pessoal, dá uma olhada na sugestão abaixo. Quando estava montando o processo de Palestra, cujo processo de agendamento é igual ao de consulta e avaliação, notei que pode ter alguma inconsistência.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -563,6 +572,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,10 +595,521 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3657600" cy="5410201"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CaixaDeTexto 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8639175" y="19659599"/>
+          <a:ext cx="3657600" cy="5410201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Reagendar Palestra (como está)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1 - Recepcionista recebe solicitação de reagendamento de palestra;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>         RN-0034: A empresa deve solicitar o reagendamento da palestra com 24 horas de antecedência, a solicitação é atendida e o processo é encerrado.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2 – Recepcionista verifica o agendamento da empresa;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>         </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3- Recepcionista verifica agenda e informa à empresa os horários disponíveis;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>         RN-0035: Se a solicitação de reagendamento não puder ser atendida, a empresa é informada e o processo encerrado.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4 – Recepcionista realiza o reagendamento da palestra;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>         RN-0036: Se a empresa solicitar o reagendamento da palestra depois do prazo de 24hrs de antecedência, será gerada uma cobrança conforme previsto em contrato e o processo é encerrado.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>       </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5 - Recepcionista realiza o retorno da solicitação de reagendamento;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6 – O processo é encerrado.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="900" b="1" i="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="900" b="1" i="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Reagendar Palestra (sugestão de mudança)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1 - Recepcionista recebe solicitação de reagendamento de palestra;</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2 – Recepcionista verifica o agendamento da empresa;</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RN-0036: Se a empresa solicitar o reagendamento com menos de 24 horas de antecedência, é informada de que será gerada uma cobrança conforme previsto em contrato. Caso a empresa desista da solicitação de reagendamento, o processo é encerrado.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3- Recepcionista verifica agenda e informa à empresa os horários disponíveis;</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>         RN-0035: Se a solicitação de reagendamento não puder ser atendida, a empresa é informada e o processo encerrado.</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4 – Recepcionista realiza o reagendamento da palestra;</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                </a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5 - Recepcionista realiza o retorno da solicitação de reagendamento;</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="900" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6 – O processo é encerrado.</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="900">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -621,9 +1147,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -655,27 +1181,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -707,27 +1215,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -900,23 +1390,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="120.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -930,7 +1421,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -938,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -946,7 +1437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="75">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -960,7 +1451,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -968,7 +1459,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -976,7 +1467,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="60">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -990,7 +1481,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -998,7 +1489,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="60">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1012,7 +1503,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1020,7 +1511,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1029,7 +1520,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1038,7 +1529,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1046,7 +1537,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="60">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1060,7 +1551,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1068,7 +1559,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="105">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1082,7 +1573,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1090,7 +1581,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1098,7 +1589,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="60">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1112,7 +1603,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1120,7 +1611,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="60">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1134,7 +1625,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="60">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1148,27 +1639,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1176,7 +1667,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1184,7 +1675,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1192,7 +1683,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1200,7 +1691,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="105">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1213,8 +1704,11 @@
       <c r="D31" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="E31" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="165">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1227,8 +1721,11 @@
       <c r="D32" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="E32" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="165">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1242,27 +1739,33 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="75">
       <c r="B35" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="120">
+      <c r="C37" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1270,12 +1773,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/TCC_ParteComum/Regras de negócio - Revisão.xlsx
+++ b/TCC_ParteComum/Regras de negócio - Revisão.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t>Se a solicitação de agendamento não puder ser atendida, o paciente é informado e o processo encerrado.</t>
   </si>
@@ -338,55 +338,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tati:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Alisson, por favor reveja esta regra e a reescreva, se necessário. Verifiquei o diagrama, mas não entendi o contexto para reescreê-la.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tati:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Alisson, por favor explicar e reescrever a regra, se necessário,</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Tati:
 Sim, regra deve ser reescrita.
 Posso reescrever.
@@ -507,12 +458,129 @@
   <si>
     <t>Alexandre: Pessoal, dá uma olhada na sugestão abaixo. Quando estava montando o processo de Palestra, cujo processo de agendamento é igual ao de consulta e avaliação, notei que pode ter alguma inconsistência.</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Para quem? Empresa? Particular? 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EMPRESA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Alisson, por favor reveja esta regra e a reescreva, se necessário. Verifiquei o diagrama, mas não entendi o contexto para reescreê-la.
+Alisson: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pelas nossas conversas arquivadas, é mais ou menos isso que ela faz, quando não acerta por e-mail, é por telefone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Alisson, por favor explicar e reescrever a regra, se n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Alisson: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pelas nossas conversas arquivadas, é mais ou menos isso que ela faz, quando não acerta por e-mail, é por telefone</t>
+    </r>
+  </si>
+  <si>
+    <t>Para quem? Empresa? Particular? 
+PALESTRA</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1103,6 +1171,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>466724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>96189</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>990599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14316075" y="5991224"/>
+          <a:ext cx="6725589" cy="3381375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1149,7 +1261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1181,9 +1293,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1215,6 +1328,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -1390,15 +1504,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="120.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -1407,7 +1521,7 @@
     <col min="5" max="5" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1421,7 +1535,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1429,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1437,7 +1551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75">
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1451,7 +1565,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1459,7 +1573,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1467,7 +1581,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60">
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1481,7 +1595,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1489,7 +1603,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60">
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1503,7 +1617,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1511,7 +1625,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1520,7 +1634,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1529,7 +1643,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1537,7 +1651,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60">
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1551,7 +1665,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1559,7 +1673,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="105">
+    <row r="16" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1567,13 +1681,16 @@
         <v>49</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>87</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1581,7 +1698,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1589,7 +1706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="60">
+    <row r="19" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1597,13 +1714,16 @@
         <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>88</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1611,7 +1731,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="60">
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1622,44 +1742,44 @@
         <v>58</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="60">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1667,7 +1787,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1675,7 +1795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1683,7 +1803,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1691,7 +1811,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="105">
+    <row r="31" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1702,13 +1822,13 @@
         <v>64</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="165">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1719,13 +1839,13 @@
         <v>66</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="165">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1736,20 +1856,20 @@
         <v>66</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="120">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1760,12 +1880,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1773,12 +1893,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
